--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonproject\ELE\flask\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42E72098-4F04-42EE-B9C1-3F2847DB0C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
   <si>
     <t>序号</t>
   </si>
@@ -112,7 +106,7 @@
     <t>10kV花碧线</t>
   </si>
   <si>
-    <t>互为备用线路</t>
+    <t>备用线路</t>
   </si>
   <si>
     <t>10kV花工一线</t>
@@ -161,9 +155,6 @@
   </si>
   <si>
     <t>10kV家顺线</t>
-  </si>
-  <si>
-    <t>备用线路</t>
   </si>
   <si>
     <t>10kV花顺线</t>
@@ -289,8 +280,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,21 +304,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -329,13 +650,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -348,21 +911,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -612,21 +1216,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="56.6" x14ac:dyDescent="0.3">
+    <row r="1" ht="56" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +1253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="2" ht="28" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -672,7 +1276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="3" ht="28" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -689,11 +1293,11 @@
         <v>350</v>
       </c>
       <c r="F3" s="2">
-        <v>71.400000000000006</v>
+        <v>71.4</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="4" ht="28" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -716,7 +1320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="5" ht="28" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -739,7 +1343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="6" ht="28" spans="1:7">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -760,7 +1364,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="7" ht="28" spans="1:7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -783,7 +1387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="8" ht="28" spans="1:7">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -804,7 +1408,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="42.45" x14ac:dyDescent="0.3">
+    <row r="9" ht="42" spans="1:7">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -827,7 +1431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="42.45" x14ac:dyDescent="0.3">
+    <row r="10" ht="42" spans="1:7">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -850,7 +1454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="11" ht="28" spans="1:7">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -873,7 +1477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="12" ht="28" spans="1:7">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -892,9 +1496,11 @@
       <c r="F12" s="2">
         <v>18.8</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+      <c r="G12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="28" spans="1:7">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -917,7 +1523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="14" ht="28" spans="1:7">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -940,7 +1546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="15" ht="28" spans="1:7">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -961,7 +1567,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="16" ht="28" spans="1:7">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -984,7 +1590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="17" ht="28" spans="1:7">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1005,7 +1611,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="18" ht="28" spans="1:7">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1028,7 +1634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="19" ht="28" spans="1:7">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1049,7 +1655,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="20" ht="28" spans="1:7">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1066,11 +1672,11 @@
         <v>195</v>
       </c>
       <c r="F20" s="2">
-        <v>39.799999999999997</v>
+        <v>39.8</v>
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="21" ht="28" spans="1:7">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1093,7 +1699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="22" ht="28" spans="1:7">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1116,7 +1722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="23" ht="28" spans="1:7">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1137,7 +1743,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="24" ht="28" spans="1:7">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1157,10 +1763,10 @@
         <v>20.7</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" ht="28" spans="1:7">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1168,7 +1774,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2">
         <v>490</v>
@@ -1177,11 +1783,11 @@
         <v>345</v>
       </c>
       <c r="F25" s="2">
-        <v>70.400000000000006</v>
+        <v>70.4</v>
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="26" ht="28" spans="1:7">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1189,7 +1795,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2">
         <v>400</v>
@@ -1201,10 +1807,10 @@
         <v>95</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" ht="28" spans="1:7">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1212,7 +1818,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2">
         <v>490</v>
@@ -1225,7 +1831,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="28" ht="28" spans="1:7">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1233,7 +1839,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2">
         <v>490</v>
@@ -1245,10 +1851,10 @@
         <v>23.5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" ht="28" spans="1:7">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1256,7 +1862,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="2">
         <v>490</v>
@@ -1265,11 +1871,11 @@
         <v>380</v>
       </c>
       <c r="F29" s="2">
-        <v>77.599999999999994</v>
+        <v>77.6</v>
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="30" ht="28" spans="1:7">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1277,7 +1883,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="2">
         <v>490</v>
@@ -1289,10 +1895,10 @@
         <v>91.8</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" ht="28" spans="1:7">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1300,7 +1906,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="2">
         <v>300</v>
@@ -1313,7 +1919,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="32" ht="28" spans="1:7">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1321,7 +1927,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="2">
         <v>400</v>
@@ -1333,10 +1939,10 @@
         <v>20.5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" ht="28" spans="1:7">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1344,7 +1950,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="2">
         <v>490</v>
@@ -1356,10 +1962,10 @@
         <v>93.9</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" ht="28" spans="1:7">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1367,7 +1973,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="2">
         <v>490</v>
@@ -1380,7 +1986,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="35" ht="28" spans="1:7">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1388,7 +1994,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="2">
         <v>490</v>
@@ -1401,7 +2007,7 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="36" ht="28" spans="1:7">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1409,7 +2015,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" s="2">
         <v>490</v>
@@ -1421,10 +2027,10 @@
         <v>24.5</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="42.45" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" ht="42" spans="1:7">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1432,7 +2038,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="2">
         <v>400</v>
@@ -1444,10 +2050,10 @@
         <v>98.8</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" ht="28" spans="1:7">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1455,7 +2061,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" s="2">
         <v>490</v>
@@ -1468,7 +2074,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="39" ht="28" spans="1:7">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1476,7 +2082,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D39" s="2">
         <v>490</v>
@@ -1488,10 +2094,10 @@
         <v>23.5</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" ht="28" spans="1:7">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1499,7 +2105,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" s="2">
         <v>490</v>
@@ -1511,10 +2117,10 @@
         <v>94.9</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" ht="28" spans="1:7">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1522,7 +2128,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" s="2">
         <v>490</v>
@@ -1535,7 +2141,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="42" ht="28" spans="1:7">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1543,7 +2149,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D42" s="2">
         <v>490</v>
@@ -1556,7 +2162,7 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="43" ht="28" spans="1:7">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1564,7 +2170,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D43" s="2">
         <v>490</v>
@@ -1576,10 +2182,10 @@
         <v>99</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" ht="28" spans="1:7">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1587,7 +2193,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44" s="2">
         <v>300</v>
@@ -1599,10 +2205,10 @@
         <v>21.7</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" ht="28" spans="1:7">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1610,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D45" s="2">
         <v>490</v>
@@ -1623,7 +2229,7 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="46" ht="28" spans="1:7">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1631,7 +2237,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" s="2">
         <v>490</v>
@@ -1643,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" ht="28" spans="1:7">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1654,7 +2260,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D47" s="2">
         <v>490</v>
@@ -1667,7 +2273,7 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="48" ht="28" spans="1:7">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1675,7 +2281,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" s="2">
         <v>490</v>
@@ -1687,10 +2293,10 @@
         <v>92.9</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" ht="28" spans="1:7">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1698,7 +2304,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2">
         <v>490</v>
@@ -1711,7 +2317,7 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="50" ht="28" spans="1:7">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1719,7 +2325,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2">
         <v>400</v>
@@ -1731,10 +2337,10 @@
         <v>98</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" ht="28" spans="1:7">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1742,7 +2348,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D51" s="2">
         <v>490</v>
@@ -1756,39 +2362,42 @@
       <c r="G51" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G11:G12"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>